--- a/ProActiv.xlsx
+++ b/ProActiv.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ProActiv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProActiv!$A$1:$Q$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProActiv!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="115">
   <si>
     <t>Claim ID</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Claim Status</t>
   </si>
   <si>
-    <t>ICD-10 Code</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
     <t>Claim Created Date</t>
   </si>
   <si>
@@ -91,10 +85,10 @@
     <t>Hassna Murenzi Uwingabe</t>
   </si>
   <si>
-    <t>FEMINIST ACTION DEVELOPMENT AMBITION</t>
-  </si>
-  <si>
-    <t>MHUB RWANDA LTD</t>
+    <t>Feminist Action Development Ambition</t>
+  </si>
+  <si>
+    <t>Mhub Rwanda Ltd</t>
   </si>
   <si>
     <t>Mental Health</t>
@@ -122,12 +116,6 @@
   </si>
   <si>
     <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>Feminist Action Development Ambition</t>
-  </si>
-  <si>
-    <t>Mhub Rwanda Ltd</t>
   </si>
   <si>
     <t>2024-05-28</t>
@@ -387,7 +375,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,13 +398,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -567,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,12 +611,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,12 +624,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,82 +867,88 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,10 +957,10 @@
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,10 +969,10 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,10 +981,10 @@
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,10 +993,10 @@
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,13 +1005,7 @@
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1401,19 +1370,17 @@
     <col min="5" max="5" width="16.3619047619048" customWidth="1"/>
     <col min="6" max="6" width="25.3619047619048" customWidth="1"/>
     <col min="7" max="7" width="13.9047619047619" customWidth="1"/>
-    <col min="8" max="8" width="13.7238095238095" customWidth="1"/>
-    <col min="9" max="9" width="11.5428571428571" customWidth="1"/>
-    <col min="10" max="10" width="19.7238095238095" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="9.62857142857143" customWidth="1"/>
-    <col min="13" max="13" width="17.3619047619048" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.2666666666667" customWidth="1"/>
-    <col min="15" max="15" width="40.3619047619048" customWidth="1"/>
-    <col min="16" max="16" width="34.6285714285714" customWidth="1"/>
-    <col min="17" max="17" width="11.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="9.62857142857143" customWidth="1"/>
+    <col min="11" max="11" width="17.3619047619048" style="3" customWidth="1"/>
+    <col min="12" max="12" width="25.2666666666667" customWidth="1"/>
+    <col min="13" max="13" width="40.3619047619048" customWidth="1"/>
+    <col min="14" max="14" width="34.6285714285714" customWidth="1"/>
+    <col min="15" max="15" width="11.7238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1444,13 +1411,13 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -1459,25 +1426,19 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:17">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:15">
       <c r="A2" s="7">
         <v>10014236</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9">
         <v>47200</v>
@@ -1486,141 +1447,139 @@
         <v>47200</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
+      <c r="O2" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:15">
       <c r="A3" s="11">
         <v>10016051</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9">
+        <v>70000</v>
+      </c>
+      <c r="F3" s="13">
+        <v>70000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9">
-        <v>70000</v>
-      </c>
-      <c r="F3" s="13">
-        <v>70000</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:17">
+      <c r="O3" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:15">
       <c r="A4" s="11">
         <v>10016529</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>70000</v>
+      </c>
+      <c r="F4" s="13">
+        <v>70000</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9">
-        <v>70000</v>
-      </c>
-      <c r="F4" s="13">
-        <v>70000</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:17">
+      <c r="O4" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:15">
       <c r="A5" s="11">
         <v>10016724</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9">
         <v>47200</v>
@@ -1629,45 +1588,45 @@
         <v>47200</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="L5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:17">
+      <c r="O5" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:15">
       <c r="A6" s="11">
         <v>10016725</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9">
         <v>47200</v>
@@ -1676,45 +1635,45 @@
         <v>47200</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="22" t="s">
+      <c r="L6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:17">
+      <c r="O6" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:15">
       <c r="A7" s="11">
         <v>10016726</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9">
         <v>47200</v>
@@ -1723,45 +1682,45 @@
         <v>47200</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="L7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:17">
+      <c r="O7" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:15">
       <c r="A8" s="11">
         <v>10016727</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9">
         <v>47200</v>
@@ -1770,45 +1729,45 @@
         <v>47200</v>
       </c>
       <c r="G8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="22" t="s">
+      <c r="L8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:17">
+      <c r="O8" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:15">
       <c r="A9" s="11">
         <v>10016728</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9">
         <v>47200</v>
@@ -1817,90 +1776,90 @@
         <v>47200</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="22" t="s">
+      <c r="L9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:17">
+      <c r="O9" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:15">
       <c r="A10" s="11">
         <v>10016818</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9">
+        <v>70000</v>
+      </c>
+      <c r="F10" s="13">
+        <v>70000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:15">
+      <c r="A11" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9">
-        <v>70000</v>
-      </c>
-      <c r="F10" s="13">
-        <v>70000</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:17">
-      <c r="A11" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="17">
         <v>60000</v>
@@ -1909,223 +1868,223 @@
         <v>60000</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L11" s="20" t="s">
+      <c r="N11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="O11" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:15">
+      <c r="A12" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:17">
-      <c r="A12" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F12" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F12" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="14" t="s">
+      <c r="H12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:15">
+      <c r="A13" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="K12" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:17">
-      <c r="A13" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F13" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F13" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L13" s="20" t="s">
+      <c r="H13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>54</v>
+      <c r="L13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:15">
       <c r="A14" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F14" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F14" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>58</v>
+      <c r="H14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:15">
       <c r="A15" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F15" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F15" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>62</v>
+      <c r="H15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="17">
         <v>60000</v>
@@ -2134,43 +2093,43 @@
         <v>60000</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="23" t="s">
+      <c r="L16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:17">
+        <v>43</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:15">
       <c r="A17" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="17">
         <v>60000</v>
@@ -2179,694 +2138,694 @@
         <v>60000</v>
       </c>
       <c r="G17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="23" t="s">
+      <c r="L17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:17">
+        <v>43</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:15">
       <c r="A18" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F18" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F18" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>38</v>
+      <c r="H18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:15">
       <c r="A19" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F19" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F19" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>70</v>
+      <c r="H19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:15">
       <c r="A20" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F20" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F20" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>58</v>
+      <c r="H20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:15">
       <c r="A21" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F21" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F21" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>76</v>
+      <c r="H21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:15">
       <c r="A22" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F22" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F22" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="H22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:15">
+      <c r="A23" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="K22" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:17">
-      <c r="A23" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F23" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F23" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>81</v>
+      <c r="H23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:15">
       <c r="A24" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F24" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F24" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>38</v>
+      <c r="H24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:15">
       <c r="A25" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F25" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F25" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L25" s="20" t="s">
+      <c r="H25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="23" t="s">
-        <v>54</v>
+      <c r="L25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:15">
       <c r="A26" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F26" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F26" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>81</v>
+      <c r="H26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:17">
+        <v>30</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:15">
       <c r="A27" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F27" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F27" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="14" t="s">
+      <c r="H27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:15">
+      <c r="A28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F28" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:17">
-      <c r="A28" s="14" t="s">
+      <c r="L28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F28" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="14" t="s">
+      <c r="M28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:15">
+      <c r="A29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L28" s="20" t="s">
+      <c r="D29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F29" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="I29" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:15">
+      <c r="A30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="D30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F30" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:17">
-      <c r="A29" s="14" t="s">
+      <c r="H30" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F29" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="14" t="s">
+      <c r="I30" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:15">
+      <c r="A31" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:17">
-      <c r="A30" s="14" t="s">
+      <c r="D31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F31" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F30" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="I31" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:15">
+      <c r="A32" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="D32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F32" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:15">
+      <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:17">
-      <c r="A31" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F31" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K31" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:17">
-      <c r="A32" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F32" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:17">
-      <c r="A33" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D33" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="17">
         <v>70000</v>
@@ -2875,39 +2834,39 @@
         <v>70000</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M33" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:17">
+      <c r="O33" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:15">
       <c r="A34" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" s="17">
         <v>60000</v>
@@ -2916,39 +2875,39 @@
         <v>60000</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K34" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:17">
+        <v>43</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:15">
       <c r="A35" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E35" s="17">
         <v>60000</v>
@@ -2957,322 +2916,322 @@
         <v>60000</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:15">
+      <c r="A36" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F36" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:15">
+      <c r="A37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F37" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q35" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:17">
-      <c r="A36" s="14" t="s">
+      <c r="I37" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:15">
+      <c r="A38" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F36" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:17">
-      <c r="A37" s="14" t="s">
+      <c r="I38" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:15">
+      <c r="A39" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F37" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" s="14" t="s">
+      <c r="D39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F39" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K37" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="16" t="s">
+      <c r="I39" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:15">
+      <c r="A40" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F40" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:17">
-      <c r="A38" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F38" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="14" t="s">
+      <c r="H40" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K38" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:17">
-      <c r="A39" s="14" t="s">
+      <c r="I40" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:15">
+      <c r="A41" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F39" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="14" t="s">
+      <c r="D41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F41" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M39" s="23" t="s">
+      <c r="I41" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:15">
+      <c r="A42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F42" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="20">
+        <v>2024</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N39" s="16" t="s">
+      <c r="L42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:17">
-      <c r="A40" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F40" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:17">
-      <c r="A41" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F41" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:17">
-      <c r="A42" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F42" s="17">
-        <v>70000</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="20">
-        <v>2024</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>58</v>
+      <c r="M42" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q42">
+  <autoFilter ref="A1:O42">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
